--- a/ProjectOutputs/Assembly/Archimajor_1.0a_BOM.xlsx
+++ b/ProjectOutputs/Assembly/Archimajor_1.0a_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Secondary\Documents\Projects\Archimajor\ProjectOutputs\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856EAF19-3EFB-4ECC-A11F-87E9BEB90007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FB8E4D-A332-41C0-8AAA-F914636CB09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3050" yWindow="4090" windowWidth="32640" windowHeight="15500" xr2:uid="{DAD4965D-5982-49D5-A4B9-CF0CED95CC7E}"/>
+    <workbookView xWindow="1110" yWindow="4010" windowWidth="32640" windowHeight="15500" xr2:uid="{5B0A051E-8D84-48CD-A091-80A0E1DF349C}"/>
   </bookViews>
   <sheets>
     <sheet name="Archimajor_1.0a_BOM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="759">
   <si>
     <t>Designator</t>
   </si>
@@ -1566,7 +1566,7 @@
     <t>RES SMD 2K OHM 1% 1/16W 0402</t>
   </si>
   <si>
-    <t>R19, R23, R33, R34, R36, R40, R71, R72, R74, R76, R79, R102, R108A, R108B, R108C, R108D, R108E, R108F, R108G, R108H, R110A, R110B, R110C, R110D, R110E, R110F, R110G, R110H, R111A, R111B, R111C, R111D, R111E, R111F, R111G, R111H, R112A, R112B, R112C, R112D, R112E, R112F, R112G, R112H, R113A, R113B, R113C, R113D, R113E, R113F, R113G, R113H, R152, R164A, R164B, R164C, R164D, R164E, R164F, R164G, R164H, R165A, R165B, R165C, R165D, R165E, R165F, R165G, R165H, R166A, R166B, R166C, R166D, R166E, R166F, R166G, R166H, R167A, R167B, R167C, R167D, R167E, R167F, R167G, R167H, R174, R175, R176, R177, R186, R187, R188, R189, R191, R193, R197, R198, R296, R297, R298, R299, R300, R301, R302, R303, R304, R305, R306, R307, R308, R309, R310, R311, R312, R313, R314, R315, R316, R317, R318, R319, R320, R321, R322, R323, R324, R325, R326, R327, R328, R329, R330, R331, R332, R333, R334, R336, R338, R340, R342, R344, R346, R348</t>
+    <t>R19, R23, R33, R34, R36, R40, R71, R72, R74, R76, R79, R102, R108A, R108B, R108C, R108D, R108E, R108F, R108G, R108H, R152, R174, R175, R176, R177, R186, R187, R188, R189, R191, R193, R197, R198, R296, R297, R298, R299, R300, R301, R302, R303, R304, R305, R306, R307, R308, R309, R310, R311, R312, R313, R314, R315, R316, R317, R318, R319, R320, R321, R322, R323, R324, R325, R326, R327, R328, R329, R330, R331, R332, R333, R334, R336, R338, R340, R342, R344, R346, R348</t>
   </si>
   <si>
     <t>311-1.00KLRTR-ND</t>
@@ -1575,7 +1575,7 @@
     <t>RC0402FR-071KL</t>
   </si>
   <si>
-    <t>RC0402FR-071KL, 1K 1% 0402</t>
+    <t>RC0402FR-071KL, 1k 1% 0402</t>
   </si>
   <si>
     <t>1k</t>
@@ -1593,7 +1593,10 @@
     <t>1/16W, 1k 1% 0402</t>
   </si>
   <si>
-    <t>R20, R21, R25, R53, R98, R99, R109, R114, R120, R133, R134, R135, R136, R137, R138, R139, R140, R141, R142, R143, R144, R145, R149, R180, R181</t>
+    <t>R20, R21, R25, R53, R98, R99, R109, R110A, R110B, R110C, R110D, R110E, R110F, R110G, R110H, R111A, R111B, R111C, R111D, R111E, R111F, R111G, R111H, R112A, R112B, R112C, R112D, R112E, R112F, R112G, R112H, R113A, R113B, R113C, R113D, R113E, R113F, R113G, R113H, R114, R120, R133, R134, R135, R136, R137, R138, R139, R140, R141, R142, R143, R144, R145, R149, R164A, R164B, R164C, R164D, R164E, R164F, R164G, R164H, R165A, R165B, R165C, R165D, R165E, R165F, R165G, R165H, R166A, R166B, R166C, R166D, R166E, R166F, R166G, R166H, R167A, R167B, R167C, R167D, R167E, R167F, R167G, R167H, R180, R181</t>
+  </si>
+  <si>
+    <t>Digi-Key Electronics, Digi-Key, Digikey</t>
   </si>
   <si>
     <t>311-100LRTR-ND</t>
@@ -1602,6 +1605,9 @@
     <t>RC0402FR-07100RL</t>
   </si>
   <si>
+    <t>RC0402FR-07100RL, 100R 1% 0402</t>
+  </si>
+  <si>
     <t>100R</t>
   </si>
   <si>
@@ -1674,7 +1680,7 @@
     <t>24k 1% 0402</t>
   </si>
   <si>
-    <t>R28, R156</t>
+    <t>R28, R61, R156</t>
   </si>
   <si>
     <t>P1.0MJTR-ND</t>
@@ -1686,6 +1692,9 @@
     <t>ERJ2GEJ105X</t>
   </si>
   <si>
+    <t>ERJ2GEJ105X, 1M 5% 0402</t>
+  </si>
+  <si>
     <t>1M</t>
   </si>
   <si>
@@ -1783,9 +1792,6 @@
   </si>
   <si>
     <t>Resistor</t>
-  </si>
-  <si>
-    <t>R61</t>
   </si>
   <si>
     <t>R62, R80, R90</t>
@@ -2680,11 +2686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EF1EE5-6C2D-405C-80B7-568710E0E63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93D8FD4-0EF1-442D-B332-78730DBCB5D3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5853,7 +5859,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="406" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>512</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>515</v>
       </c>
       <c r="G76" s="4">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>19</v>
@@ -5897,68 +5903,68 @@
         <v>520</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>228</v>
+        <v>522</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G77" s="4">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K77" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>466</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G78" s="4">
         <v>14</v>
@@ -5967,16 +5973,16 @@
         <v>19</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K78" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>466</v>
@@ -5987,22 +5993,22 @@
     </row>
     <row r="79" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G79" s="4">
         <v>4</v>
@@ -6011,27 +6017,27 @@
         <v>19</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K79" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>466</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>19</v>
@@ -6040,99 +6046,99 @@
         <v>19</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G80" s="4">
         <v>2</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>474</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G82" s="4">
         <v>16</v>
@@ -6141,16 +6147,16 @@
         <v>19</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>466</v>
@@ -6161,22 +6167,22 @@
     </row>
     <row r="83" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G83" s="4">
         <v>6</v>
@@ -6185,16 +6191,16 @@
         <v>19</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>466</v>
@@ -6205,38 +6211,38 @@
     </row>
     <row r="84" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>477</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G84" s="4">
         <v>1</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>466</v>
@@ -6247,22 +6253,22 @@
     </row>
     <row r="85" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G85" s="4">
         <v>2</v>
@@ -6271,16 +6277,16 @@
         <v>19</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>466</v>
@@ -6291,16 +6297,16 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G86" s="4">
         <v>1</v>
@@ -6309,349 +6315,347 @@
         <v>7</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="G87" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>555</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>587</v>
+        <v>19</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>588</v>
+        <v>461</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="G88" s="4">
-        <v>3</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H88" s="4"/>
       <c r="I88" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>466</v>
+        <v>600</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>467</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>19</v>
+        <v>603</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="G89" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="3" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>598</v>
+        <v>466</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>599</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>28</v>
+        <v>610</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="3" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>466</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>607</v>
+        <v>19</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>608</v>
+        <v>469</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G91" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="3" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>19</v>
+        <v>623</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G92" s="4">
-        <v>16</v>
-      </c>
-      <c r="H92" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I92" s="3" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>474</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>134</v>
+        <v>630</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="G93" s="4">
-        <v>4</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H93" s="4"/>
       <c r="I93" s="3" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>623</v>
+        <v>197</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>474</v>
+        <v>197</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>628</v>
+        <v>67</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>316</v>
+        <v>638</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="G94" s="4">
         <v>1</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="3" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>197</v>
@@ -6660,337 +6664,333 @@
         <v>197</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>636</v>
+        <v>432</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G95" s="4">
         <v>1</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="3" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="L95" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M95" s="4"/>
+      <c r="N95" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="G96" s="4">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="M96" s="4"/>
       <c r="N96" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>650</v>
+        <v>214</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G97" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G98" s="4">
-        <v>4</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="M98" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="M99" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N98" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G99" s="4">
-        <v>2</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="K99" s="4"/>
-      <c r="L99" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N99" s="4"/>
-    </row>
-    <row r="100" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="N99" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G100" s="4">
         <v>1</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="3" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="G101" s="4">
         <v>1</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="3" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>684</v>
+        <v>197</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>687</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="3" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G102" s="4">
         <v>1</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>197</v>
+        <v>697</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>197</v>
@@ -6999,459 +6999,421 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+        <v>698</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D103" s="3" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="G103" s="4">
+        <v>5</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G104" s="4">
         <v>1</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="M103" s="3" t="s">
+      <c r="H104" s="4"/>
+      <c r="I104" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="M104" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N103" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G104" s="4">
-        <v>5</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N104" s="4"/>
+      <c r="N104" s="3" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G105" s="4">
+      <c r="C106" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G107" s="4">
         <v>1</v>
       </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="M105" s="3" t="s">
+      <c r="H107" s="4"/>
+      <c r="I107" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="L107" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4">
-        <v>8</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="G107" s="4">
-        <v>2</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>720</v>
+        <v>432</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G108" s="4">
         <v>1</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="3" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>723</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="K108" s="4"/>
       <c r="L108" s="3" t="s">
-        <v>197</v>
+        <v>731</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>432</v>
+        <v>735</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G109" s="4">
         <v>1</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="3" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="K109" s="4"/>
+        <v>738</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>739</v>
+      </c>
       <c r="L109" s="3" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>732</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="G110" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="3" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="M110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="M111" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N110" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="G111" s="4">
-        <v>4</v>
-      </c>
-      <c r="H111" s="4"/>
-      <c r="I111" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N111" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>19</v>
+        <v>752</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="G112" s="4">
-        <v>2</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H112" s="4"/>
       <c r="I112" s="3" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>197</v>
+        <v>758</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="G113" s="4">
-        <v>1</v>
-      </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="N113" s="3" t="s">
         <v>197</v>
       </c>
     </row>
